--- a/biology/Botanique/Liste_d'épices_et_aromates/Liste_d'épices_et_aromates.xlsx
+++ b/biology/Botanique/Liste_d'épices_et_aromates/Liste_d'épices_et_aromates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pices_et_aromates</t>
+          <t>Liste_d'épices_et_aromates</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Important : Comme tout produit végétal, les épices peuvent être dangereuses ! Merci de lire cette mise en garde
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pices_et_aromates</t>
+          <t>Liste_d'épices_et_aromates</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ISO
-L'Organisation internationale de normalisation a élaboré une norme internationale (ISO 676) établissant une liste non exhaustive de 109 plantes utilisées en tant qu'épices ou aromates. Ils y sont définis comme des « produits végétaux ou mélanges de ceux-ci, exempts de matières étrangères, utilisés pour donner de la saveur et de l’arôme et pour assaisonner les aliments ». La première édition de cette liste a été publiée en 1982, et la seconde en 1995. Plusieurs épices de la liste font elles-mêmes l'objet de normes internationales qui en donnent les spécifications précises[1].
-Codex Alimentarius
-Le Codex Alimentarius est un programme commun de l'Organisation des Nations unies pour l'alimentation et l'agriculture (FAO) et de l'Organisation mondiale de la santé (OMS). Il a établi une « classification des produits destinés à l'alimentation humaine et animale », dans laquelle chaque produit est identifié par un code. La classe A de cette classification (« produits d'alimentation primaire d'origine végétale ») contient un type 5 intitulé « herbes condimentaires et épices », qui suit les définitions suivantes :
-« Les herbes condimentaires sont des feuilles, fleurs, tiges et racines provenant d’une variété de plantes (herbacées), utilisées en quantités relativement petites comme condiments pour aromatiser les aliments et boissons. Elles sont utilisées sous leur forme fraîche ou séchées naturellement. »
-« Les épices sont les graines aromatiques, bourgeons, racines, rhizomes, écorces, gousses, fleurs ou parties de fleurs, baies et autres fruits d’une variété de plantes qui sont utilisés en quantités relativement faibles pour aromatiser les aliments. Elles sont consommées principalement sous leur forme séchée comme condiments. »
-Chacun des deux groupes est lui-même divisé en plusieurs sous-groupes. En fonction des parties utilisées, une même plante peut être classée sous plusieurs codes[2].
+          <t>ISO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Organisation internationale de normalisation a élaboré une norme internationale (ISO 676) établissant une liste non exhaustive de 109 plantes utilisées en tant qu'épices ou aromates. Ils y sont définis comme des « produits végétaux ou mélanges de ceux-ci, exempts de matières étrangères, utilisés pour donner de la saveur et de l’arôme et pour assaisonner les aliments ». La première édition de cette liste a été publiée en 1982, et la seconde en 1995. Plusieurs épices de la liste font elles-mêmes l'objet de normes internationales qui en donnent les spécifications précises.
 </t>
         </is>
       </c>
@@ -533,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pices_et_aromates</t>
+          <t>Liste_d'épices_et_aromates</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +560,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Clé du tableau</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Codex Alimentarius</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Codex Alimentarius est un programme commun de l'Organisation des Nations unies pour l'alimentation et l'agriculture (FAO) et de l'Organisation mondiale de la santé (OMS). Il a établi une « classification des produits destinés à l'alimentation humaine et animale », dans laquelle chaque produit est identifié par un code. La classe A de cette classification (« produits d'alimentation primaire d'origine végétale ») contient un type 5 intitulé « herbes condimentaires et épices », qui suit les définitions suivantes :
+« Les herbes condimentaires sont des feuilles, fleurs, tiges et racines provenant d’une variété de plantes (herbacées), utilisées en quantités relativement petites comme condiments pour aromatiser les aliments et boissons. Elles sont utilisées sous leur forme fraîche ou séchées naturellement. »
+« Les épices sont les graines aromatiques, bourgeons, racines, rhizomes, écorces, gousses, fleurs ou parties de fleurs, baies et autres fruits d’une variété de plantes qui sont utilisés en quantités relativement faibles pour aromatiser les aliments. Elles sont consommées principalement sous leur forme séchée comme condiments. »
+Chacun des deux groupes est lui-même divisé en plusieurs sous-groupes. En fonction des parties utilisées, une même plante peut être classée sous plusieurs codes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pices_et_aromates</t>
+          <t>Liste_d'épices_et_aromates</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +600,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Clé du tableau</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'épices_et_aromates</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C3%A9pices_et_aromates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
